--- a/data/chap3/3.1.xlsx
+++ b/data/chap3/3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myfolders\桌面\free-excel-main\data\chap3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\free-excel\data\chap3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98A2253-B1C6-464D-9CA2-C132DAA24465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BF47EE-6E2D-4648-A05A-5E9FD8C90F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" tabRatio="828" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="案例1" sheetId="89" r:id="rId1"/>
@@ -323,11 +323,11 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -429,72 +429,6 @@
     </tableStyle>
   </tableStyles>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF1E80B5"/>
       <color rgb="FF00A4DC"/>
@@ -525,7 +459,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -720,21 +654,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9E58EE-8A37-4616-8D09-C263D1F3C592}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.26953125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="8.6328125" style="3" customWidth="1"/>
-    <col min="4" max="6" width="8.6328125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="7.26953125" style="3"/>
+    <col min="1" max="1" width="12.6640625" style="6" customWidth="1"/>
+    <col min="2" max="6" width="8.6640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="7.21875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1">
+    <row r="1" spans="1:5" ht="36" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -750,9 +683,8 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1">
+    </row>
+    <row r="2" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -768,9 +700,8 @@
       <c r="E2" s="5">
         <v>89</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1">
+    </row>
+    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -786,9 +717,8 @@
       <c r="E3" s="5">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1">
+    </row>
+    <row r="4" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -804,9 +734,8 @@
       <c r="E4" s="5">
         <v>34</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1">
+    </row>
+    <row r="5" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -822,9 +751,8 @@
       <c r="E5" s="5">
         <v>27</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1">
+    </row>
+    <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -840,9 +768,8 @@
       <c r="E6" s="5">
         <v>72</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1">
+    </row>
+    <row r="7" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -858,9 +785,8 @@
       <c r="E7" s="5">
         <v>58</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1">
+    </row>
+    <row r="8" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -876,9 +802,8 @@
       <c r="E8" s="5">
         <v>6</v>
       </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1">
+    </row>
+    <row r="9" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -894,9 +819,8 @@
       <c r="E9" s="5">
         <v>35</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1">
+    </row>
+    <row r="10" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -912,9 +836,8 @@
       <c r="E10" s="5">
         <v>82</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1">
+    </row>
+    <row r="11" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -930,9 +853,8 @@
       <c r="E11" s="5">
         <v>84</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1">
+    </row>
+    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -948,17 +870,27 @@
       <c r="E12" s="5">
         <v>16</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="19.95" customHeight="1">
+    </row>
+    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="7">
+        <f t="shared" ref="B13:E13" si="0">SUM(B2:B12)</f>
+        <v>638</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>479</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>667</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>509</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -971,15 +903,14 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E12"/>
+      <selection activeCell="B2" sqref="B2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.26953125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="8.6328125" style="3" customWidth="1"/>
-    <col min="4" max="6" width="8.6328125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="7.26953125" style="3"/>
+    <col min="1" max="1" width="12.6640625" style="6" customWidth="1"/>
+    <col min="2" max="6" width="8.6640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="7.21875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
@@ -1002,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1">
+    <row r="2" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1018,9 +949,9 @@
       <c r="E2" s="5">
         <v>89</v>
       </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1036,9 +967,9 @@
       <c r="E3" s="5">
         <v>6</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1054,9 +985,9 @@
       <c r="E4" s="5">
         <v>34</v>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1072,9 +1003,9 @@
       <c r="E5" s="5">
         <v>27</v>
       </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1090,9 +1021,9 @@
       <c r="E6" s="5">
         <v>72</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1108,9 +1039,9 @@
       <c r="E7" s="5">
         <v>58</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1126,9 +1057,9 @@
       <c r="E8" s="5">
         <v>6</v>
       </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1144,9 +1075,9 @@
       <c r="E9" s="5">
         <v>35</v>
       </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1162,9 +1093,9 @@
       <c r="E10" s="5">
         <v>82</v>
       </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1180,9 +1111,9 @@
       <c r="E11" s="5">
         <v>84</v>
       </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1198,13 +1129,26 @@
       <c r="E12" s="5">
         <v>16</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="B13" s="8">
+        <f>SUM(B2:B12)</f>
+        <v>638</v>
+      </c>
+      <c r="C13" s="8">
+        <f>SUM(C2:C12)</f>
+        <v>479</v>
+      </c>
+      <c r="D13" s="8">
+        <f>SUM(D2:D12)</f>
+        <v>667</v>
+      </c>
+      <c r="E13" s="8">
+        <f>SUM(E2:E12)</f>
+        <v>509</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1216,16 +1160,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388CB2EE-2A46-4016-8936-7F028061E8F6}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B2:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.26953125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.21875" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="8.6328125" style="3" customWidth="1"/>
-    <col min="4" max="6" width="8.6328125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="7.26953125" style="3"/>
+    <col min="1" max="1" width="12.6640625" style="6" customWidth="1"/>
+    <col min="2" max="6" width="8.6640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="7.21875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
@@ -1248,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1">
+    <row r="2" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1264,9 +1207,12 @@
       <c r="E2" s="5">
         <v>89</v>
       </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F2" s="7">
+        <f>SUM(B2:E2)</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1282,9 +1228,12 @@
       <c r="E3" s="5">
         <v>6</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F13" si="0">SUM(B3:E3)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1300,9 +1249,12 @@
       <c r="E4" s="5">
         <v>34</v>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1318,9 +1270,12 @@
       <c r="E5" s="5">
         <v>27</v>
       </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1336,9 +1291,12 @@
       <c r="E6" s="5">
         <v>72</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1354,9 +1312,12 @@
       <c r="E7" s="5">
         <v>58</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1372,9 +1333,12 @@
       <c r="E8" s="5">
         <v>6</v>
       </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1390,9 +1354,12 @@
       <c r="E9" s="5">
         <v>35</v>
       </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1408,9 +1375,12 @@
       <c r="E10" s="5">
         <v>82</v>
       </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1426,9 +1396,12 @@
       <c r="E11" s="5">
         <v>84</v>
       </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1444,17 +1417,35 @@
       <c r="E12" s="5">
         <v>16</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="19.95" customHeight="1">
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="7">
+        <f>SUM(B2:B12)</f>
+        <v>638</v>
+      </c>
+      <c r="C13" s="7">
+        <f>SUM(C2:C12)</f>
+        <v>479</v>
+      </c>
+      <c r="D13" s="7">
+        <f>SUM(D2:D12)</f>
+        <v>667</v>
+      </c>
+      <c r="E13" s="7">
+        <f>SUM(E2:E12)</f>
+        <v>509</v>
+      </c>
+      <c r="F13" s="7">
+        <f>SUM(B13:E13)</f>
+        <v>2293</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
